--- a/Time-Logger/Stats/sessions.xlsx
+++ b/Time-Logger/Stats/sessions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -34,37 +34,22 @@
     <t>Timestamp</t>
   </si>
   <si>
-    <t>12/7/2025</t>
+    <t>12/8/2025</t>
   </si>
   <si>
     <t>gamedev</t>
   </si>
   <si>
-    <t>4s</t>
-  </si>
-  <si>
-    <t>AI Studio: 2s</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2025-12-07T10:34:56.894Z</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>0s</t>
-  </si>
-  <si>
-    <t>Manual Timer</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>2025-12-07T10:35:03.702Z</t>
+    <t>16m 30s</t>
+  </si>
+  <si>
+    <t>Unity: 15m 48s, VS Code: 40s</t>
+  </si>
+  <si>
+    <t>GetReady Scene setup</t>
+  </si>
+  <si>
+    <t>2025-12-08T03:51:05.000Z</t>
   </si>
 </sst>
 </file>
@@ -445,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
@@ -503,29 +488,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
